--- a/tut08/score_pak.xlsx
+++ b/tut08/score_pak.xlsx
@@ -476,8 +476,10 @@
           <t xml:space="preserve"> Babar Azam(c)</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Babar Azam c Arshdeep Singh b Bhuvneshwar 10(9)</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>10</v>
@@ -501,8 +503,10 @@
           <t xml:space="preserve"> Mohammad Rizwan(w)</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rizwan c Avesh Khan b Hardik Pandya 43(42)</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>43</v>
@@ -526,8 +530,10 @@
           <t xml:space="preserve"> Fakhar Zaman</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fakhar Zaman c Karthik b Avesh Khan 10(6)</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>10</v>
@@ -551,8 +557,10 @@
           <t xml:space="preserve"> Iftikhar Ahmed</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Iftikhar Ahmed c Karthik b Hardik Pandya 28(22)</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>28</v>
@@ -576,8 +584,10 @@
           <t xml:space="preserve"> Khushdil Shah</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Khushdil c Jadeja b Hardik Pandya 2(7)</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -601,8 +611,10 @@
           <t xml:space="preserve"> Asif Ali</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Asif Ali c Suryakumar Yadav b Bhuvneshwar 9(7)</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>9</v>
@@ -626,8 +638,10 @@
           <t xml:space="preserve"> Shadab Khan</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NOT OUT/ DNB</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>10</v>
@@ -651,8 +665,10 @@
           <t xml:space="preserve"> Mohammad Nawaz</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mohammad Nawaz c Karthik b Arshdeep Singh 1(3)</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -676,8 +692,10 @@
           <t xml:space="preserve"> Naseem Shah</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NOT OUT/ DNB</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -701,8 +719,10 @@
           <t xml:space="preserve"> Haris Rauf</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NOT OUT/ DNB</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>13</v>
@@ -726,8 +746,10 @@
           <t xml:space="preserve"> Shahnawaz Dahani</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dahani b Arshdeep Singh 16(6)</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>16</v>
